--- a/mySystem/mySystem/xls/Extrusion/A/SOP-MFG-301-R13 吹膜岗位交接班记录.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/A/SOP-MFG-301-R13 吹膜岗位交接班记录.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19140" windowHeight="10860"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19140" windowHeight="10860" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="记录" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="20170920" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="39">
   <si>
     <r>
       <rPr>
@@ -537,6 +538,145 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">  Handover Record of Extrusion Process</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产指令编号：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>白班交班人：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                   </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜班异常情况处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白班异常情况处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>夜班交班人：</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>诳班接班人：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                                  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>交接时间：</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>白班接班人：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                                     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>交接</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时间：</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -624,7 +764,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -927,13 +1067,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1018,6 +1171,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
@@ -1068,6 +1224,33 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1375,8 +1558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1402,47 +1585,47 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
     </row>
     <row r="3" spans="1:6" ht="24.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="41" t="s">
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="42"/>
+      <c r="F3" s="43"/>
     </row>
     <row r="4" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="39" t="s">
+      <c r="C4" s="32"/>
+      <c r="D4" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="40"/>
+      <c r="E4" s="41"/>
       <c r="F4" s="12" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.7" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="38"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="33"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="34"/>
       <c r="D5" s="13" t="s">
         <v>2</v>
       </c>
@@ -1455,10 +1638,10 @@
       <c r="A6" s="16">
         <v>1</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="35"/>
+      <c r="C6" s="36"/>
       <c r="D6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1471,10 +1654,10 @@
       <c r="A7" s="16">
         <v>2</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="35"/>
+      <c r="C7" s="36"/>
       <c r="D7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1487,10 +1670,10 @@
       <c r="A8" s="16">
         <v>3</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="35"/>
+      <c r="C8" s="36"/>
       <c r="D8" s="1" t="s">
         <v>4</v>
       </c>
@@ -1503,10 +1686,10 @@
       <c r="A9" s="16">
         <v>4</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="35"/>
+      <c r="C9" s="36"/>
       <c r="D9" s="1" t="s">
         <v>4</v>
       </c>
@@ -1519,10 +1702,10 @@
       <c r="A10" s="16">
         <v>5</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="35"/>
+      <c r="C10" s="36"/>
       <c r="D10" s="1" t="s">
         <v>4</v>
       </c>
@@ -1535,10 +1718,10 @@
       <c r="A11" s="16">
         <v>6</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="35"/>
+      <c r="C11" s="36"/>
       <c r="D11" s="1" t="s">
         <v>4</v>
       </c>
@@ -1551,10 +1734,10 @@
       <c r="A12" s="16">
         <v>7</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="35"/>
+      <c r="C12" s="36"/>
       <c r="D12" s="1" t="s">
         <v>4</v>
       </c>
@@ -1569,10 +1752,10 @@
       <c r="A13" s="16">
         <v>8</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="35"/>
+      <c r="C13" s="36"/>
       <c r="D13" s="1" t="s">
         <v>4</v>
       </c>
@@ -1585,10 +1768,10 @@
       <c r="A14" s="16">
         <v>9</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="35"/>
+      <c r="C14" s="36"/>
       <c r="D14" s="1" t="s">
         <v>4</v>
       </c>
@@ -1603,10 +1786,10 @@
       <c r="A15" s="16">
         <v>10</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="35"/>
+      <c r="C15" s="36"/>
       <c r="D15" s="1" t="s">
         <v>4</v>
       </c>
@@ -1619,10 +1802,10 @@
       <c r="A16" s="16">
         <v>11</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="35"/>
+      <c r="C16" s="36"/>
       <c r="D16" s="1" t="s">
         <v>4</v>
       </c>
@@ -1635,10 +1818,10 @@
       <c r="A17" s="16">
         <v>12</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="35"/>
+      <c r="C17" s="36"/>
       <c r="D17" s="1" t="s">
         <v>4</v>
       </c>
@@ -1651,10 +1834,10 @@
       <c r="A18" s="16">
         <v>13</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="35"/>
+      <c r="C18" s="36"/>
       <c r="D18" s="1" t="s">
         <v>4</v>
       </c>
@@ -1667,10 +1850,10 @@
       <c r="A19" s="19">
         <v>14</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="35"/>
+      <c r="C19" s="36"/>
       <c r="D19" s="4" t="s">
         <v>4</v>
       </c>
@@ -1680,7 +1863,7 @@
       <c r="F19" s="15"/>
     </row>
     <row r="20" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="29" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="20" t="s">
@@ -1694,7 +1877,7 @@
       <c r="F20" s="15"/>
     </row>
     <row r="21" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="29"/>
+      <c r="A21" s="30"/>
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
       <c r="D21" s="5"/>
@@ -1741,6 +1924,351 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="6" style="11" customWidth="1"/>
+    <col min="2" max="2" width="30.625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="20.25" style="11" customWidth="1"/>
+    <col min="4" max="5" width="7.75" style="25" customWidth="1"/>
+    <col min="6" max="6" width="64.5" style="11" customWidth="1"/>
+    <col min="7" max="16384" width="26.125" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+    </row>
+    <row r="3" spans="1:6" ht="24.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="52" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="D4" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="41"/>
+      <c r="F4" s="49" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="39"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="54"/>
+    </row>
+    <row r="6" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="28">
+        <v>1</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="36"/>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="54"/>
+    </row>
+    <row r="7" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="28">
+        <v>2</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="36"/>
+      <c r="D7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="54"/>
+    </row>
+    <row r="8" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="28">
+        <v>3</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="36"/>
+      <c r="D8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="54"/>
+    </row>
+    <row r="9" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="28">
+        <v>4</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="36"/>
+      <c r="D9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="54"/>
+    </row>
+    <row r="10" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="28">
+        <v>5</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="36"/>
+      <c r="D10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="50" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="28">
+        <v>6</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="36"/>
+      <c r="D11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="28">
+        <v>7</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="36"/>
+      <c r="D12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="49" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="28">
+        <v>8</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="36"/>
+      <c r="D13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="54"/>
+    </row>
+    <row r="14" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="28">
+        <v>9</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="36"/>
+      <c r="D14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="54"/>
+    </row>
+    <row r="15" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="28">
+        <v>10</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="36"/>
+      <c r="D15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="54"/>
+    </row>
+    <row r="16" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="28">
+        <v>11</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="36"/>
+      <c r="D16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="54"/>
+    </row>
+    <row r="17" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="28">
+        <v>12</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="36"/>
+      <c r="D17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="54"/>
+    </row>
+    <row r="18" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="28">
+        <v>13</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="36"/>
+      <c r="D18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="19">
+        <v>14</v>
+      </c>
+      <c r="B19" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="47"/>
+      <c r="D19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="51" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F20" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.73" right="0.37" top="0.95" bottom="0.28000000000000003" header="0.31496062992125984" footer="0.2"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1755,7 +2283,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/mySystem/mySystem/xls/Extrusion/A/SOP-MFG-301-R13 吹膜岗位交接班记录.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/A/SOP-MFG-301-R13 吹膜岗位交接班记录.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19140" windowHeight="10860" activeTab="1"/>
@@ -596,17 +596,14 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>诳班接班人：</t>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>白班接班人：</t>
     </r>
     <r>
       <rPr>
@@ -615,30 +612,17 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">                                  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>交接时间：</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>白班接班人：</t>
+      <t xml:space="preserve">                                     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>交接</t>
     </r>
     <r>
       <rPr>
@@ -647,17 +631,30 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">                                     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>交接</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时间：</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>夜班接班人：</t>
     </r>
     <r>
       <rPr>
@@ -666,17 +663,17 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>时间：</t>
+      <t xml:space="preserve">                                  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>交接时间：</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -684,8 +681,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1086,7 +1083,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1174,6 +1171,51 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
@@ -1198,31 +1240,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1231,26 +1249,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1312,7 +1312,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1344,10 +1344,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1379,7 +1378,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1555,14 +1553,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="6" style="11" customWidth="1"/>
     <col min="2" max="2" width="30.625" style="11" customWidth="1"/>
@@ -1572,7 +1570,7 @@
     <col min="7" max="16384" width="26.125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="19.350000000000001" customHeight="1">
       <c r="A1" s="27" t="s">
         <v>26</v>
       </c>
@@ -1584,48 +1582,48 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="37" t="s">
+    <row r="2" spans="1:6" ht="41.25" customHeight="1">
+      <c r="A2" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-    </row>
-    <row r="3" spans="1:6" ht="24.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="44" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+    </row>
+    <row r="3" spans="1:6" ht="24.2" customHeight="1">
+      <c r="A3" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="42" t="s">
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="43"/>
-    </row>
-    <row r="4" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="38" t="s">
+      <c r="F3" s="41"/>
+    </row>
+    <row r="4" spans="1:6" ht="17.45" customHeight="1">
+      <c r="A4" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="40" t="s">
+      <c r="C4" s="47"/>
+      <c r="D4" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="41"/>
+      <c r="E4" s="39"/>
       <c r="F4" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16.7" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="39"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="34"/>
+    <row r="5" spans="1:6" ht="16.7" customHeight="1">
+      <c r="A5" s="37"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="49"/>
       <c r="D5" s="13" t="s">
         <v>2</v>
       </c>
@@ -1634,14 +1632,14 @@
       </c>
       <c r="F5" s="15"/>
     </row>
-    <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="18.75" customHeight="1">
       <c r="A6" s="16">
         <v>1</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="36"/>
+      <c r="C6" s="51"/>
       <c r="D6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1650,14 +1648,14 @@
       </c>
       <c r="F6" s="15"/>
     </row>
-    <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="18.75" customHeight="1">
       <c r="A7" s="16">
         <v>2</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="36"/>
+      <c r="C7" s="51"/>
       <c r="D7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1666,14 +1664,14 @@
       </c>
       <c r="F7" s="15"/>
     </row>
-    <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="18.75" customHeight="1">
       <c r="A8" s="16">
         <v>3</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="36"/>
+      <c r="C8" s="51"/>
       <c r="D8" s="1" t="s">
         <v>4</v>
       </c>
@@ -1682,14 +1680,14 @@
       </c>
       <c r="F8" s="15"/>
     </row>
-    <row r="9" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="18.75" customHeight="1">
       <c r="A9" s="16">
         <v>4</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="36"/>
+      <c r="C9" s="51"/>
       <c r="D9" s="1" t="s">
         <v>4</v>
       </c>
@@ -1698,14 +1696,14 @@
       </c>
       <c r="F9" s="15"/>
     </row>
-    <row r="10" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="18.75" customHeight="1">
       <c r="A10" s="16">
         <v>5</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="36"/>
+      <c r="C10" s="51"/>
       <c r="D10" s="1" t="s">
         <v>4</v>
       </c>
@@ -1714,14 +1712,14 @@
       </c>
       <c r="F10" s="15"/>
     </row>
-    <row r="11" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="18.75" customHeight="1">
       <c r="A11" s="16">
         <v>6</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="36"/>
+      <c r="C11" s="51"/>
       <c r="D11" s="1" t="s">
         <v>4</v>
       </c>
@@ -1730,14 +1728,14 @@
       </c>
       <c r="F11" s="15"/>
     </row>
-    <row r="12" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="18.75" customHeight="1">
       <c r="A12" s="16">
         <v>7</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="36"/>
+      <c r="C12" s="51"/>
       <c r="D12" s="1" t="s">
         <v>4</v>
       </c>
@@ -1748,14 +1746,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="18.75" customHeight="1">
       <c r="A13" s="16">
         <v>8</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="36"/>
+      <c r="C13" s="51"/>
       <c r="D13" s="1" t="s">
         <v>4</v>
       </c>
@@ -1764,14 +1762,14 @@
       </c>
       <c r="F13" s="18"/>
     </row>
-    <row r="14" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="18.75" customHeight="1">
       <c r="A14" s="16">
         <v>9</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="36"/>
+      <c r="C14" s="51"/>
       <c r="D14" s="1" t="s">
         <v>4</v>
       </c>
@@ -1782,14 +1780,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="18.75" customHeight="1">
       <c r="A15" s="16">
         <v>10</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="36"/>
+      <c r="C15" s="51"/>
       <c r="D15" s="1" t="s">
         <v>4</v>
       </c>
@@ -1798,14 +1796,14 @@
       </c>
       <c r="F15" s="15"/>
     </row>
-    <row r="16" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="18.75" customHeight="1">
       <c r="A16" s="16">
         <v>11</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="36"/>
+      <c r="C16" s="51"/>
       <c r="D16" s="1" t="s">
         <v>4</v>
       </c>
@@ -1814,14 +1812,14 @@
       </c>
       <c r="F16" s="15"/>
     </row>
-    <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" ht="18.75" customHeight="1">
       <c r="A17" s="16">
         <v>12</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="36"/>
+      <c r="C17" s="51"/>
       <c r="D17" s="1" t="s">
         <v>4</v>
       </c>
@@ -1830,14 +1828,14 @@
       </c>
       <c r="F17" s="15"/>
     </row>
-    <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" ht="18.75" customHeight="1">
       <c r="A18" s="16">
         <v>13</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="36"/>
+      <c r="C18" s="51"/>
       <c r="D18" s="1" t="s">
         <v>4</v>
       </c>
@@ -1846,14 +1844,14 @@
       </c>
       <c r="F18" s="15"/>
     </row>
-    <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" ht="18.75" customHeight="1">
       <c r="A19" s="19">
         <v>14</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="36"/>
+      <c r="C19" s="51"/>
       <c r="D19" s="4" t="s">
         <v>4</v>
       </c>
@@ -1862,8 +1860,8 @@
       </c>
       <c r="F19" s="15"/>
     </row>
-    <row r="20" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="29" t="s">
+    <row r="20" spans="1:6" ht="23.25" customHeight="1">
+      <c r="A20" s="44" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="20" t="s">
@@ -1876,8 +1874,8 @@
       <c r="E20" s="7"/>
       <c r="F20" s="15"/>
     </row>
-    <row r="21" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="30"/>
+    <row r="21" spans="1:6" ht="90" customHeight="1">
+      <c r="A21" s="45"/>
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
       <c r="D21" s="5"/>
@@ -1886,19 +1884,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" ht="21.95" customHeight="1">
       <c r="F22" s="25"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6">
       <c r="F23" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A3:D3"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="B4:C5"/>
     <mergeCell ref="B6:C6"/>
@@ -1915,6 +1908,11 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A3:D3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.73" right="0.37" top="0.6" bottom="0.28000000000000003" header="0.31496062992125984" footer="0.2"/>
@@ -1923,14 +1921,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F13" sqref="F13:F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="6" style="11" customWidth="1"/>
     <col min="2" max="2" width="30.625" style="11" customWidth="1"/>
@@ -1940,7 +1938,7 @@
     <col min="7" max="16384" width="26.125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="19.350000000000001" customHeight="1">
       <c r="A1" s="27" t="s">
         <v>26</v>
       </c>
@@ -1952,146 +1950,146 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="37" t="s">
+    <row r="2" spans="1:6" ht="41.25" customHeight="1">
+      <c r="A2" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-    </row>
-    <row r="3" spans="1:6" ht="24.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="48" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+    </row>
+    <row r="3" spans="1:6" ht="24.2" customHeight="1">
+      <c r="A3" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="52" t="s">
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="38" t="s">
+    <row r="4" spans="1:6" ht="22.5" customHeight="1">
+      <c r="A4" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="40" t="s">
+      <c r="C4" s="47"/>
+      <c r="D4" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="49" t="s">
+      <c r="E4" s="39"/>
+      <c r="F4" s="29" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="39"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="34"/>
+    <row r="5" spans="1:6">
+      <c r="A5" s="37"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="49"/>
       <c r="D5" s="13" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="54"/>
-    </row>
-    <row r="6" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F5" s="34"/>
+    </row>
+    <row r="6" spans="1:6" ht="22.5" customHeight="1">
       <c r="A6" s="28">
         <v>1</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="36"/>
+      <c r="C6" s="51"/>
       <c r="D6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="54"/>
-    </row>
-    <row r="7" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F6" s="55"/>
+    </row>
+    <row r="7" spans="1:6" ht="22.5" customHeight="1">
       <c r="A7" s="28">
         <v>2</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="36"/>
+      <c r="C7" s="51"/>
       <c r="D7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="54"/>
-    </row>
-    <row r="8" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F7" s="55"/>
+    </row>
+    <row r="8" spans="1:6" ht="22.5" customHeight="1">
       <c r="A8" s="28">
         <v>3</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="36"/>
+      <c r="C8" s="51"/>
       <c r="D8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="54"/>
-    </row>
-    <row r="9" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F8" s="55"/>
+    </row>
+    <row r="9" spans="1:6" ht="22.5" customHeight="1">
       <c r="A9" s="28">
         <v>4</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="36"/>
+      <c r="C9" s="51"/>
       <c r="D9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="54"/>
-    </row>
-    <row r="10" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F9" s="55"/>
+    </row>
+    <row r="10" spans="1:6" ht="22.5" customHeight="1">
       <c r="A10" s="28">
         <v>5</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="36"/>
+      <c r="C10" s="51"/>
       <c r="D10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="50" t="s">
+      <c r="F10" s="30" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="22.5" customHeight="1">
       <c r="A11" s="28">
         <v>6</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="36"/>
+      <c r="C11" s="51"/>
       <c r="D11" s="1" t="s">
         <v>4</v>
       </c>
@@ -2099,115 +2097,115 @@
         <v>4</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="22.5" customHeight="1">
       <c r="A12" s="28">
         <v>7</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="36"/>
+      <c r="C12" s="51"/>
       <c r="D12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="49" t="s">
+      <c r="F12" s="29" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="22.5" customHeight="1">
       <c r="A13" s="28">
         <v>8</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="36"/>
+      <c r="C13" s="51"/>
       <c r="D13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="54"/>
-    </row>
-    <row r="14" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F13" s="55"/>
+    </row>
+    <row r="14" spans="1:6" ht="22.5" customHeight="1">
       <c r="A14" s="28">
         <v>9</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="36"/>
+      <c r="C14" s="51"/>
       <c r="D14" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="54"/>
-    </row>
-    <row r="15" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F14" s="55"/>
+    </row>
+    <row r="15" spans="1:6" ht="22.5" customHeight="1">
       <c r="A15" s="28">
         <v>10</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="36"/>
+      <c r="C15" s="51"/>
       <c r="D15" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="54"/>
-    </row>
-    <row r="16" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F15" s="55"/>
+    </row>
+    <row r="16" spans="1:6" ht="22.5" customHeight="1">
       <c r="A16" s="28">
         <v>11</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="36"/>
+      <c r="C16" s="51"/>
       <c r="D16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="54"/>
-    </row>
-    <row r="17" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F16" s="55"/>
+    </row>
+    <row r="17" spans="1:6" ht="22.5" customHeight="1">
       <c r="A17" s="28">
         <v>12</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="36"/>
+      <c r="C17" s="51"/>
       <c r="D17" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="54"/>
-    </row>
-    <row r="18" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F17" s="55"/>
+    </row>
+    <row r="18" spans="1:6" ht="22.5" customHeight="1">
       <c r="A18" s="28">
         <v>13</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="36"/>
+      <c r="C18" s="51"/>
       <c r="D18" s="1" t="s">
         <v>4</v>
       </c>
@@ -2218,29 +2216,38 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" ht="22.5" customHeight="1">
       <c r="A19" s="19">
         <v>14</v>
       </c>
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="47"/>
+      <c r="C19" s="54"/>
       <c r="D19" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F19" s="51" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F19" s="31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="F20" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="21">
+    <mergeCell ref="F13:F17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:D3"/>
@@ -2252,14 +2259,7 @@
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="F6:F9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.73" right="0.37" top="0.95" bottom="0.28000000000000003" header="0.31496062992125984" footer="0.2"/>
@@ -2268,14 +2268,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2284,12 +2284,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/mySystem/mySystem/xls/Extrusion/A/SOP-MFG-301-R13 吹膜岗位交接班记录.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/A/SOP-MFG-301-R13 吹膜岗位交接班记录.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10523"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D354A09D-D0B5-A041-985E-D0BB2FF4DC0D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19140" windowHeight="10860" activeTab="1"/>
+    <workbookView xWindow="800" yWindow="460" windowWidth="19140" windowHeight="10860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="记录" sheetId="4" r:id="rId1"/>
@@ -681,19 +682,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1189,6 +1190,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1216,45 +1241,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1270,7 +1271,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1312,7 +1313,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1344,9 +1345,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1378,6 +1397,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1553,24 +1590,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="26.1640625" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="6" style="11" customWidth="1"/>
-    <col min="2" max="2" width="30.625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="20.25" style="11" customWidth="1"/>
-    <col min="4" max="5" width="7.875" style="25" customWidth="1"/>
-    <col min="6" max="6" width="64.625" style="11" customWidth="1"/>
-    <col min="7" max="16384" width="26.125" style="11"/>
+    <col min="2" max="2" width="30.6640625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" style="11" customWidth="1"/>
+    <col min="4" max="5" width="7.83203125" style="25" customWidth="1"/>
+    <col min="6" max="6" width="64.6640625" style="11" customWidth="1"/>
+    <col min="7" max="16384" width="26.1640625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.350000000000001" customHeight="1">
+    <row r="1" spans="1:6" ht="19.25" customHeight="1">
       <c r="A1" s="27" t="s">
         <v>26</v>
       </c>
@@ -1583,47 +1620,47 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="41.25" customHeight="1">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-    </row>
-    <row r="3" spans="1:6" ht="24.2" customHeight="1">
-      <c r="A3" s="42" t="s">
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+    </row>
+    <row r="3" spans="1:6" ht="24.25" customHeight="1">
+      <c r="A3" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="40" t="s">
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="41"/>
-    </row>
-    <row r="4" spans="1:6" ht="17.45" customHeight="1">
-      <c r="A4" s="36" t="s">
+      <c r="F3" s="49"/>
+    </row>
+    <row r="4" spans="1:6" ht="17.5" customHeight="1">
+      <c r="A4" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="38" t="s">
+      <c r="C4" s="38"/>
+      <c r="D4" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="39"/>
+      <c r="E4" s="47"/>
       <c r="F4" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16.7" customHeight="1">
-      <c r="A5" s="37"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="49"/>
+    <row r="5" spans="1:6" ht="16.75" customHeight="1">
+      <c r="A5" s="45"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="40"/>
       <c r="D5" s="13" t="s">
         <v>2</v>
       </c>
@@ -1636,10 +1673,10 @@
       <c r="A6" s="16">
         <v>1</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="51"/>
+      <c r="C6" s="42"/>
       <c r="D6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1652,10 +1689,10 @@
       <c r="A7" s="16">
         <v>2</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="51"/>
+      <c r="C7" s="42"/>
       <c r="D7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1668,10 +1705,10 @@
       <c r="A8" s="16">
         <v>3</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="51"/>
+      <c r="C8" s="42"/>
       <c r="D8" s="1" t="s">
         <v>4</v>
       </c>
@@ -1684,10 +1721,10 @@
       <c r="A9" s="16">
         <v>4</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="51"/>
+      <c r="C9" s="42"/>
       <c r="D9" s="1" t="s">
         <v>4</v>
       </c>
@@ -1700,10 +1737,10 @@
       <c r="A10" s="16">
         <v>5</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="51"/>
+      <c r="C10" s="42"/>
       <c r="D10" s="1" t="s">
         <v>4</v>
       </c>
@@ -1716,10 +1753,10 @@
       <c r="A11" s="16">
         <v>6</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="51"/>
+      <c r="C11" s="42"/>
       <c r="D11" s="1" t="s">
         <v>4</v>
       </c>
@@ -1732,10 +1769,10 @@
       <c r="A12" s="16">
         <v>7</v>
       </c>
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="51"/>
+      <c r="C12" s="42"/>
       <c r="D12" s="1" t="s">
         <v>4</v>
       </c>
@@ -1750,10 +1787,10 @@
       <c r="A13" s="16">
         <v>8</v>
       </c>
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="51"/>
+      <c r="C13" s="42"/>
       <c r="D13" s="1" t="s">
         <v>4</v>
       </c>
@@ -1766,10 +1803,10 @@
       <c r="A14" s="16">
         <v>9</v>
       </c>
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="51"/>
+      <c r="C14" s="42"/>
       <c r="D14" s="1" t="s">
         <v>4</v>
       </c>
@@ -1784,10 +1821,10 @@
       <c r="A15" s="16">
         <v>10</v>
       </c>
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="51"/>
+      <c r="C15" s="42"/>
       <c r="D15" s="1" t="s">
         <v>4</v>
       </c>
@@ -1800,10 +1837,10 @@
       <c r="A16" s="16">
         <v>11</v>
       </c>
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="51"/>
+      <c r="C16" s="42"/>
       <c r="D16" s="1" t="s">
         <v>4</v>
       </c>
@@ -1816,10 +1853,10 @@
       <c r="A17" s="16">
         <v>12</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="51"/>
+      <c r="C17" s="42"/>
       <c r="D17" s="1" t="s">
         <v>4</v>
       </c>
@@ -1832,10 +1869,10 @@
       <c r="A18" s="16">
         <v>13</v>
       </c>
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="51"/>
+      <c r="C18" s="42"/>
       <c r="D18" s="1" t="s">
         <v>4</v>
       </c>
@@ -1848,10 +1885,10 @@
       <c r="A19" s="19">
         <v>14</v>
       </c>
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="51"/>
+      <c r="C19" s="42"/>
       <c r="D19" s="4" t="s">
         <v>4</v>
       </c>
@@ -1861,7 +1898,7 @@
       <c r="F19" s="15"/>
     </row>
     <row r="20" spans="1:6" ht="23.25" customHeight="1">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="35" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="20" t="s">
@@ -1875,7 +1912,7 @@
       <c r="F20" s="15"/>
     </row>
     <row r="21" spans="1:6" ht="90" customHeight="1">
-      <c r="A21" s="45"/>
+      <c r="A21" s="36"/>
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
       <c r="D21" s="5"/>
@@ -1884,7 +1921,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="21.95" customHeight="1">
+    <row r="22" spans="1:6" ht="22" customHeight="1">
       <c r="F22" s="25"/>
     </row>
     <row r="23" spans="1:6">
@@ -1892,6 +1929,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A3:D3"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="B4:C5"/>
     <mergeCell ref="B6:C6"/>
@@ -1908,11 +1950,6 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A3:D3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.73" right="0.37" top="0.6" bottom="0.28000000000000003" header="0.31496062992125984" footer="0.2"/>
@@ -1921,24 +1958,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13:F17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="26.1640625" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="6" style="11" customWidth="1"/>
-    <col min="2" max="2" width="30.625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="20.25" style="11" customWidth="1"/>
-    <col min="4" max="5" width="7.75" style="25" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" style="11" customWidth="1"/>
+    <col min="4" max="5" width="7.6640625" style="25" customWidth="1"/>
     <col min="6" max="6" width="64.5" style="11" customWidth="1"/>
-    <col min="7" max="16384" width="26.125" style="11"/>
+    <col min="7" max="16384" width="26.1640625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.350000000000001" customHeight="1">
+    <row r="1" spans="1:6" ht="19.25" customHeight="1">
       <c r="A1" s="27" t="s">
         <v>26</v>
       </c>
@@ -1951,47 +1988,47 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="41.25" customHeight="1">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-    </row>
-    <row r="3" spans="1:6" ht="24.2" customHeight="1">
-      <c r="A3" s="52" t="s">
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+    </row>
+    <row r="3" spans="1:6" ht="24.25" customHeight="1">
+      <c r="A3" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
       <c r="E3" s="33"/>
       <c r="F3" s="32" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="38" t="s">
+      <c r="C4" s="38"/>
+      <c r="D4" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="39"/>
+      <c r="E4" s="47"/>
       <c r="F4" s="29" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="37"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="49"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="40"/>
       <c r="D5" s="13" t="s">
         <v>2</v>
       </c>
@@ -2004,10 +2041,10 @@
       <c r="A6" s="28">
         <v>1</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="51"/>
+      <c r="C6" s="42"/>
       <c r="D6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2020,10 +2057,10 @@
       <c r="A7" s="28">
         <v>2</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="51"/>
+      <c r="C7" s="42"/>
       <c r="D7" s="1" t="s">
         <v>4</v>
       </c>
@@ -2036,10 +2073,10 @@
       <c r="A8" s="28">
         <v>3</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="51"/>
+      <c r="C8" s="42"/>
       <c r="D8" s="1" t="s">
         <v>4</v>
       </c>
@@ -2052,10 +2089,10 @@
       <c r="A9" s="28">
         <v>4</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="51"/>
+      <c r="C9" s="42"/>
       <c r="D9" s="1" t="s">
         <v>4</v>
       </c>
@@ -2068,10 +2105,10 @@
       <c r="A10" s="28">
         <v>5</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="51"/>
+      <c r="C10" s="42"/>
       <c r="D10" s="1" t="s">
         <v>4</v>
       </c>
@@ -2086,10 +2123,10 @@
       <c r="A11" s="28">
         <v>6</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="51"/>
+      <c r="C11" s="42"/>
       <c r="D11" s="1" t="s">
         <v>4</v>
       </c>
@@ -2104,10 +2141,10 @@
       <c r="A12" s="28">
         <v>7</v>
       </c>
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="51"/>
+      <c r="C12" s="42"/>
       <c r="D12" s="1" t="s">
         <v>4</v>
       </c>
@@ -2122,10 +2159,10 @@
       <c r="A13" s="28">
         <v>8</v>
       </c>
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="51"/>
+      <c r="C13" s="42"/>
       <c r="D13" s="1" t="s">
         <v>4</v>
       </c>
@@ -2138,10 +2175,10 @@
       <c r="A14" s="28">
         <v>9</v>
       </c>
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="51"/>
+      <c r="C14" s="42"/>
       <c r="D14" s="1" t="s">
         <v>4</v>
       </c>
@@ -2154,10 +2191,10 @@
       <c r="A15" s="28">
         <v>10</v>
       </c>
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="51"/>
+      <c r="C15" s="42"/>
       <c r="D15" s="1" t="s">
         <v>4</v>
       </c>
@@ -2170,10 +2207,10 @@
       <c r="A16" s="28">
         <v>11</v>
       </c>
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="51"/>
+      <c r="C16" s="42"/>
       <c r="D16" s="1" t="s">
         <v>4</v>
       </c>
@@ -2186,10 +2223,10 @@
       <c r="A17" s="28">
         <v>12</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="51"/>
+      <c r="C17" s="42"/>
       <c r="D17" s="1" t="s">
         <v>4</v>
       </c>
@@ -2202,10 +2239,10 @@
       <c r="A18" s="28">
         <v>13</v>
       </c>
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="51"/>
+      <c r="C18" s="42"/>
       <c r="D18" s="1" t="s">
         <v>4</v>
       </c>
@@ -2220,10 +2257,10 @@
       <c r="A19" s="19">
         <v>14</v>
       </c>
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="54"/>
+      <c r="C19" s="53"/>
       <c r="D19" s="4" t="s">
         <v>4</v>
       </c>
@@ -2239,15 +2276,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="F13:F17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:D3"/>
@@ -2260,6 +2288,15 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="F6:F9"/>
+    <mergeCell ref="F13:F17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.73" right="0.37" top="0.95" bottom="0.28000000000000003" header="0.31496062992125984" footer="0.2"/>
@@ -2268,14 +2305,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2284,12 +2321,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/mySystem/mySystem/xls/Extrusion/A/SOP-MFG-301-R13 吹膜岗位交接班记录.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/A/SOP-MFG-301-R13 吹膜岗位交接班记录.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D354A09D-D0B5-A041-985E-D0BB2FF4DC0D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{76923E09-584A-EB4F-AF4A-A97A9C73ACDA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="800" yWindow="460" windowWidth="19140" windowHeight="10860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="860" yWindow="460" windowWidth="19140" windowHeight="10860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="记录" sheetId="4" r:id="rId1"/>
@@ -762,7 +762,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -1078,6 +1078,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1181,15 +1196,39 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
@@ -1214,32 +1253,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1247,11 +1265,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1620,47 +1635,47 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="41.25" customHeight="1">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="1:6" ht="24.25" customHeight="1">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="48" t="s">
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="49"/>
+      <c r="F3" s="40"/>
     </row>
     <row r="4" spans="1:6" ht="17.5" customHeight="1">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="46" t="s">
+      <c r="C4" s="46"/>
+      <c r="D4" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="47"/>
+      <c r="E4" s="38"/>
       <c r="F4" s="12" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.75" customHeight="1">
-      <c r="A5" s="45"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="40"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="48"/>
       <c r="D5" s="13" t="s">
         <v>2</v>
       </c>
@@ -1673,10 +1688,10 @@
       <c r="A6" s="16">
         <v>1</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="42"/>
+      <c r="C6" s="50"/>
       <c r="D6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1689,10 +1704,10 @@
       <c r="A7" s="16">
         <v>2</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="42"/>
+      <c r="C7" s="50"/>
       <c r="D7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1705,10 +1720,10 @@
       <c r="A8" s="16">
         <v>3</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="42"/>
+      <c r="C8" s="50"/>
       <c r="D8" s="1" t="s">
         <v>4</v>
       </c>
@@ -1721,10 +1736,10 @@
       <c r="A9" s="16">
         <v>4</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="42"/>
+      <c r="C9" s="50"/>
       <c r="D9" s="1" t="s">
         <v>4</v>
       </c>
@@ -1737,10 +1752,10 @@
       <c r="A10" s="16">
         <v>5</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="42"/>
+      <c r="C10" s="50"/>
       <c r="D10" s="1" t="s">
         <v>4</v>
       </c>
@@ -1753,10 +1768,10 @@
       <c r="A11" s="16">
         <v>6</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="42"/>
+      <c r="C11" s="50"/>
       <c r="D11" s="1" t="s">
         <v>4</v>
       </c>
@@ -1769,10 +1784,10 @@
       <c r="A12" s="16">
         <v>7</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="42"/>
+      <c r="C12" s="50"/>
       <c r="D12" s="1" t="s">
         <v>4</v>
       </c>
@@ -1787,10 +1802,10 @@
       <c r="A13" s="16">
         <v>8</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="42"/>
+      <c r="C13" s="50"/>
       <c r="D13" s="1" t="s">
         <v>4</v>
       </c>
@@ -1803,10 +1818,10 @@
       <c r="A14" s="16">
         <v>9</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="42"/>
+      <c r="C14" s="50"/>
       <c r="D14" s="1" t="s">
         <v>4</v>
       </c>
@@ -1821,10 +1836,10 @@
       <c r="A15" s="16">
         <v>10</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="42"/>
+      <c r="C15" s="50"/>
       <c r="D15" s="1" t="s">
         <v>4</v>
       </c>
@@ -1837,10 +1852,10 @@
       <c r="A16" s="16">
         <v>11</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="42"/>
+      <c r="C16" s="50"/>
       <c r="D16" s="1" t="s">
         <v>4</v>
       </c>
@@ -1853,10 +1868,10 @@
       <c r="A17" s="16">
         <v>12</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="42"/>
+      <c r="C17" s="50"/>
       <c r="D17" s="1" t="s">
         <v>4</v>
       </c>
@@ -1869,10 +1884,10 @@
       <c r="A18" s="16">
         <v>13</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="42"/>
+      <c r="C18" s="50"/>
       <c r="D18" s="1" t="s">
         <v>4</v>
       </c>
@@ -1885,10 +1900,10 @@
       <c r="A19" s="19">
         <v>14</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="42"/>
+      <c r="C19" s="50"/>
       <c r="D19" s="4" t="s">
         <v>4</v>
       </c>
@@ -1898,7 +1913,7 @@
       <c r="F19" s="15"/>
     </row>
     <row r="20" spans="1:6" ht="23.25" customHeight="1">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="43" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="20" t="s">
@@ -1912,7 +1927,7 @@
       <c r="F20" s="15"/>
     </row>
     <row r="21" spans="1:6" ht="90" customHeight="1">
-      <c r="A21" s="36"/>
+      <c r="A21" s="44"/>
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
       <c r="D21" s="5"/>
@@ -1929,11 +1944,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A3:D3"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="B4:C5"/>
     <mergeCell ref="B6:C6"/>
@@ -1950,6 +1960,11 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A3:D3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.73" right="0.37" top="0.6" bottom="0.28000000000000003" header="0.31496062992125984" footer="0.2"/>
@@ -1961,8 +1976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26.1640625" defaultRowHeight="14"/>
@@ -1988,127 +2003,127 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="41.25" customHeight="1">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="1:6" ht="24.25" customHeight="1">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="32" t="s">
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="55" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="46" t="s">
+      <c r="C4" s="46"/>
+      <c r="D4" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="47"/>
+      <c r="E4" s="38"/>
       <c r="F4" s="29" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="45"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="40"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="48"/>
       <c r="D5" s="13" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="34"/>
+      <c r="F5" s="33"/>
     </row>
     <row r="6" spans="1:6" ht="22.5" customHeight="1">
       <c r="A6" s="28">
         <v>1</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="42"/>
+      <c r="C6" s="50"/>
       <c r="D6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="55"/>
+      <c r="F6" s="52"/>
     </row>
     <row r="7" spans="1:6" ht="22.5" customHeight="1">
       <c r="A7" s="28">
         <v>2</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="42"/>
+      <c r="C7" s="50"/>
       <c r="D7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="55"/>
+      <c r="F7" s="52"/>
     </row>
     <row r="8" spans="1:6" ht="22.5" customHeight="1">
       <c r="A8" s="28">
         <v>3</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="42"/>
+      <c r="C8" s="50"/>
       <c r="D8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="55"/>
+      <c r="F8" s="52"/>
     </row>
     <row r="9" spans="1:6" ht="22.5" customHeight="1">
       <c r="A9" s="28">
         <v>4</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="42"/>
+      <c r="C9" s="50"/>
       <c r="D9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="55"/>
+      <c r="F9" s="52"/>
     </row>
     <row r="10" spans="1:6" ht="22.5" customHeight="1">
       <c r="A10" s="28">
         <v>5</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="42"/>
+      <c r="C10" s="50"/>
       <c r="D10" s="1" t="s">
         <v>4</v>
       </c>
@@ -2123,10 +2138,10 @@
       <c r="A11" s="28">
         <v>6</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="42"/>
+      <c r="C11" s="50"/>
       <c r="D11" s="1" t="s">
         <v>4</v>
       </c>
@@ -2141,10 +2156,10 @@
       <c r="A12" s="28">
         <v>7</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="42"/>
+      <c r="C12" s="50"/>
       <c r="D12" s="1" t="s">
         <v>4</v>
       </c>
@@ -2159,90 +2174,90 @@
       <c r="A13" s="28">
         <v>8</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="42"/>
+      <c r="C13" s="50"/>
       <c r="D13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="55"/>
+      <c r="F13" s="52"/>
     </row>
     <row r="14" spans="1:6" ht="22.5" customHeight="1">
       <c r="A14" s="28">
         <v>9</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="42"/>
+      <c r="C14" s="50"/>
       <c r="D14" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="55"/>
+      <c r="F14" s="52"/>
     </row>
     <row r="15" spans="1:6" ht="22.5" customHeight="1">
       <c r="A15" s="28">
         <v>10</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="42"/>
+      <c r="C15" s="50"/>
       <c r="D15" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="55"/>
+      <c r="F15" s="52"/>
     </row>
     <row r="16" spans="1:6" ht="22.5" customHeight="1">
       <c r="A16" s="28">
         <v>11</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="42"/>
+      <c r="C16" s="50"/>
       <c r="D16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="55"/>
+      <c r="F16" s="52"/>
     </row>
     <row r="17" spans="1:6" ht="22.5" customHeight="1">
       <c r="A17" s="28">
         <v>12</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="42"/>
+      <c r="C17" s="50"/>
       <c r="D17" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="55"/>
+      <c r="F17" s="52"/>
     </row>
     <row r="18" spans="1:6" ht="22.5" customHeight="1">
       <c r="A18" s="28">
         <v>13</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="42"/>
+      <c r="C18" s="50"/>
       <c r="D18" s="1" t="s">
         <v>4</v>
       </c>
@@ -2257,10 +2272,10 @@
       <c r="A19" s="19">
         <v>14</v>
       </c>
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="53"/>
+      <c r="C19" s="54"/>
       <c r="D19" s="4" t="s">
         <v>4</v>
       </c>
@@ -2276,6 +2291,15 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="F13:F17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:D3"/>
@@ -2288,15 +2312,6 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="F6:F9"/>
-    <mergeCell ref="F13:F17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.73" right="0.37" top="0.95" bottom="0.28000000000000003" header="0.31496062992125984" footer="0.2"/>

--- a/mySystem/mySystem/xls/Extrusion/A/SOP-MFG-301-R13 吹膜岗位交接班记录.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/A/SOP-MFG-301-R13 吹膜岗位交接班记录.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{76923E09-584A-EB4F-AF4A-A97A9C73ACDA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="460" windowWidth="19140" windowHeight="10860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="855" yWindow="465" windowWidth="19140" windowHeight="10860" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="记录" sheetId="4" r:id="rId1"/>
@@ -18,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="40">
   <si>
     <r>
       <rPr>
@@ -676,25 +675,29 @@
       </rPr>
       <t>交接时间：</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认生产过程中无任何生产安全遗留和潜在隐患。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -753,6 +756,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -762,7 +780,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1066,19 +1084,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1202,6 +1207,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1256,21 +1264,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1286,7 +1291,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1361,23 +1366,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1413,23 +1401,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1605,24 +1576,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="26.1640625" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6" style="11" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" style="11" customWidth="1"/>
-    <col min="4" max="5" width="7.83203125" style="25" customWidth="1"/>
-    <col min="6" max="6" width="64.6640625" style="11" customWidth="1"/>
-    <col min="7" max="16384" width="26.1640625" style="11"/>
+    <col min="2" max="2" width="30.625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="20.125" style="11" customWidth="1"/>
+    <col min="4" max="5" width="7.875" style="25" customWidth="1"/>
+    <col min="6" max="6" width="64.625" style="11" customWidth="1"/>
+    <col min="7" max="16384" width="26.125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.25" customHeight="1">
+    <row r="1" spans="1:6" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="27" t="s">
         <v>26</v>
       </c>
@@ -1634,48 +1605,48 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="41.25" customHeight="1">
-      <c r="A2" s="34" t="s">
+    <row r="2" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-    </row>
-    <row r="3" spans="1:6" ht="24.25" customHeight="1">
-      <c r="A3" s="41" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+    </row>
+    <row r="3" spans="1:6" ht="24.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="39" t="s">
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="40"/>
-    </row>
-    <row r="4" spans="1:6" ht="17.5" customHeight="1">
-      <c r="A4" s="35" t="s">
+      <c r="F3" s="41"/>
+    </row>
+    <row r="4" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="37" t="s">
+      <c r="C4" s="47"/>
+      <c r="D4" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="38"/>
+      <c r="E4" s="39"/>
       <c r="F4" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16.75" customHeight="1">
-      <c r="A5" s="36"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="48"/>
+    <row r="5" spans="1:6" ht="16.7" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="37"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="49"/>
       <c r="D5" s="13" t="s">
         <v>2</v>
       </c>
@@ -1684,14 +1655,14 @@
       </c>
       <c r="F5" s="15"/>
     </row>
-    <row r="6" spans="1:6" ht="18.75" customHeight="1">
+    <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="16">
         <v>1</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="50"/>
+      <c r="C6" s="51"/>
       <c r="D6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1700,14 +1671,14 @@
       </c>
       <c r="F6" s="15"/>
     </row>
-    <row r="7" spans="1:6" ht="18.75" customHeight="1">
+    <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="16">
         <v>2</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="50"/>
+      <c r="C7" s="51"/>
       <c r="D7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1716,14 +1687,14 @@
       </c>
       <c r="F7" s="15"/>
     </row>
-    <row r="8" spans="1:6" ht="18.75" customHeight="1">
+    <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="16">
         <v>3</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="50"/>
+      <c r="C8" s="51"/>
       <c r="D8" s="1" t="s">
         <v>4</v>
       </c>
@@ -1732,14 +1703,14 @@
       </c>
       <c r="F8" s="15"/>
     </row>
-    <row r="9" spans="1:6" ht="18.75" customHeight="1">
+    <row r="9" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="16">
         <v>4</v>
       </c>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="50"/>
+      <c r="C9" s="51"/>
       <c r="D9" s="1" t="s">
         <v>4</v>
       </c>
@@ -1748,14 +1719,14 @@
       </c>
       <c r="F9" s="15"/>
     </row>
-    <row r="10" spans="1:6" ht="18.75" customHeight="1">
+    <row r="10" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="16">
         <v>5</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="50"/>
+      <c r="C10" s="51"/>
       <c r="D10" s="1" t="s">
         <v>4</v>
       </c>
@@ -1764,14 +1735,14 @@
       </c>
       <c r="F10" s="15"/>
     </row>
-    <row r="11" spans="1:6" ht="18.75" customHeight="1">
+    <row r="11" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="16">
         <v>6</v>
       </c>
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="50"/>
+      <c r="C11" s="51"/>
       <c r="D11" s="1" t="s">
         <v>4</v>
       </c>
@@ -1780,14 +1751,14 @@
       </c>
       <c r="F11" s="15"/>
     </row>
-    <row r="12" spans="1:6" ht="18.75" customHeight="1">
+    <row r="12" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
         <v>7</v>
       </c>
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="50"/>
+      <c r="C12" s="51"/>
       <c r="D12" s="1" t="s">
         <v>4</v>
       </c>
@@ -1798,14 +1769,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="18.75" customHeight="1">
+    <row r="13" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="16">
         <v>8</v>
       </c>
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="50"/>
+      <c r="C13" s="51"/>
       <c r="D13" s="1" t="s">
         <v>4</v>
       </c>
@@ -1814,14 +1785,14 @@
       </c>
       <c r="F13" s="18"/>
     </row>
-    <row r="14" spans="1:6" ht="18.75" customHeight="1">
+    <row r="14" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="16">
         <v>9</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="50"/>
+      <c r="C14" s="51"/>
       <c r="D14" s="1" t="s">
         <v>4</v>
       </c>
@@ -1832,14 +1803,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="18.75" customHeight="1">
+    <row r="15" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="16">
         <v>10</v>
       </c>
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="50"/>
+      <c r="C15" s="51"/>
       <c r="D15" s="1" t="s">
         <v>4</v>
       </c>
@@ -1848,14 +1819,14 @@
       </c>
       <c r="F15" s="15"/>
     </row>
-    <row r="16" spans="1:6" ht="18.75" customHeight="1">
+    <row r="16" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="16">
         <v>11</v>
       </c>
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="50"/>
+      <c r="C16" s="51"/>
       <c r="D16" s="1" t="s">
         <v>4</v>
       </c>
@@ -1864,14 +1835,14 @@
       </c>
       <c r="F16" s="15"/>
     </row>
-    <row r="17" spans="1:6" ht="18.75" customHeight="1">
+    <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="16">
         <v>12</v>
       </c>
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="50"/>
+      <c r="C17" s="51"/>
       <c r="D17" s="1" t="s">
         <v>4</v>
       </c>
@@ -1880,14 +1851,14 @@
       </c>
       <c r="F17" s="15"/>
     </row>
-    <row r="18" spans="1:6" ht="18.75" customHeight="1">
+    <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="16">
         <v>13</v>
       </c>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="50"/>
+      <c r="C18" s="51"/>
       <c r="D18" s="1" t="s">
         <v>4</v>
       </c>
@@ -1896,14 +1867,14 @@
       </c>
       <c r="F18" s="15"/>
     </row>
-    <row r="19" spans="1:6" ht="18.75" customHeight="1">
+    <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="19">
         <v>14</v>
       </c>
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="50"/>
+      <c r="C19" s="51"/>
       <c r="D19" s="4" t="s">
         <v>4</v>
       </c>
@@ -1912,8 +1883,8 @@
       </c>
       <c r="F19" s="15"/>
     </row>
-    <row r="20" spans="1:6" ht="23.25" customHeight="1">
-      <c r="A20" s="43" t="s">
+    <row r="20" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="44" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="20" t="s">
@@ -1926,8 +1897,8 @@
       <c r="E20" s="7"/>
       <c r="F20" s="15"/>
     </row>
-    <row r="21" spans="1:6" ht="90" customHeight="1">
-      <c r="A21" s="44"/>
+    <row r="21" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="45"/>
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
       <c r="D21" s="5"/>
@@ -1936,10 +1907,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="22" customHeight="1">
+    <row r="22" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F22" s="25"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F23" s="26"/>
     </row>
   </sheetData>
@@ -1973,24 +1944,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F13" sqref="F13:F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="26.1640625" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6" style="11" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" style="11" customWidth="1"/>
-    <col min="4" max="5" width="7.6640625" style="25" customWidth="1"/>
+    <col min="2" max="2" width="30.625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="20.125" style="11" customWidth="1"/>
+    <col min="4" max="5" width="7.625" style="25" customWidth="1"/>
     <col min="6" max="6" width="64.5" style="11" customWidth="1"/>
-    <col min="7" max="16384" width="26.1640625" style="11"/>
+    <col min="7" max="16384" width="26.125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.25" customHeight="1">
+    <row r="1" spans="1:6" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="27" t="s">
         <v>26</v>
       </c>
@@ -2002,48 +1973,48 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="41.25" customHeight="1">
-      <c r="A2" s="34" t="s">
+    <row r="2" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-    </row>
-    <row r="3" spans="1:6" ht="24.25" customHeight="1">
-      <c r="A3" s="51" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+    </row>
+    <row r="3" spans="1:6" ht="24.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
       <c r="E3" s="32"/>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="34" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A4" s="35" t="s">
+    <row r="4" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="37" t="s">
+      <c r="C4" s="47"/>
+      <c r="D4" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="38"/>
+      <c r="E4" s="39"/>
       <c r="F4" s="29" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="36"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="48"/>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="37"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="49"/>
       <c r="D5" s="13" t="s">
         <v>2</v>
       </c>
@@ -2052,78 +2023,78 @@
       </c>
       <c r="F5" s="33"/>
     </row>
-    <row r="6" spans="1:6" ht="22.5" customHeight="1">
+    <row r="6" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="28">
         <v>1</v>
       </c>
-      <c r="B6" s="49" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="50"/>
+      <c r="B6" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="55"/>
       <c r="D6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="52"/>
-    </row>
-    <row r="7" spans="1:6" ht="22.5" customHeight="1">
+      <c r="F6" s="53"/>
+    </row>
+    <row r="7" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="28">
         <v>2</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="50"/>
+      <c r="C7" s="55"/>
       <c r="D7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="52"/>
-    </row>
-    <row r="8" spans="1:6" ht="22.5" customHeight="1">
+      <c r="F7" s="53"/>
+    </row>
+    <row r="8" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="28">
         <v>3</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="50"/>
+      <c r="C8" s="55"/>
       <c r="D8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="52"/>
-    </row>
-    <row r="9" spans="1:6" ht="22.5" customHeight="1">
+      <c r="F8" s="53"/>
+    </row>
+    <row r="9" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="28">
         <v>4</v>
       </c>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="50"/>
+      <c r="C9" s="55"/>
       <c r="D9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="52"/>
-    </row>
-    <row r="10" spans="1:6" ht="22.5" customHeight="1">
+      <c r="F9" s="53"/>
+    </row>
+    <row r="10" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="28">
         <v>5</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="50"/>
+      <c r="C10" s="55"/>
       <c r="D10" s="1" t="s">
         <v>4</v>
       </c>
@@ -2134,14 +2105,14 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="22.5" customHeight="1">
+    <row r="11" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="28">
         <v>6</v>
       </c>
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="50"/>
+      <c r="C11" s="55"/>
       <c r="D11" s="1" t="s">
         <v>4</v>
       </c>
@@ -2152,14 +2123,14 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="22.5" customHeight="1">
+    <row r="12" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="28">
         <v>7</v>
       </c>
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="50"/>
+      <c r="C12" s="55"/>
       <c r="D12" s="1" t="s">
         <v>4</v>
       </c>
@@ -2170,94 +2141,94 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="22.5" customHeight="1">
+    <row r="13" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="28">
         <v>8</v>
       </c>
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="50"/>
+      <c r="C13" s="55"/>
       <c r="D13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="52"/>
-    </row>
-    <row r="14" spans="1:6" ht="22.5" customHeight="1">
+      <c r="F13" s="53"/>
+    </row>
+    <row r="14" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="28">
         <v>9</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="50"/>
+      <c r="C14" s="55"/>
       <c r="D14" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="52"/>
-    </row>
-    <row r="15" spans="1:6" ht="22.5" customHeight="1">
+      <c r="F14" s="53"/>
+    </row>
+    <row r="15" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="28">
         <v>10</v>
       </c>
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="50"/>
+      <c r="C15" s="55"/>
       <c r="D15" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="52"/>
-    </row>
-    <row r="16" spans="1:6" ht="22.5" customHeight="1">
+      <c r="F15" s="53"/>
+    </row>
+    <row r="16" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="28">
         <v>11</v>
       </c>
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="50"/>
+      <c r="C16" s="55"/>
       <c r="D16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="52"/>
-    </row>
-    <row r="17" spans="1:6" ht="22.5" customHeight="1">
+      <c r="F16" s="53"/>
+    </row>
+    <row r="17" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="28">
         <v>12</v>
       </c>
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="50"/>
+      <c r="C17" s="55"/>
       <c r="D17" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="52"/>
-    </row>
-    <row r="18" spans="1:6" ht="22.5" customHeight="1">
+      <c r="F17" s="53"/>
+    </row>
+    <row r="18" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="28">
         <v>13</v>
       </c>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="50"/>
+      <c r="C18" s="55"/>
       <c r="D18" s="1" t="s">
         <v>4</v>
       </c>
@@ -2268,14 +2239,14 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="22.5" customHeight="1">
+    <row r="19" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="19">
         <v>14</v>
       </c>
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="54"/>
+      <c r="C19" s="55"/>
       <c r="D19" s="4" t="s">
         <v>4</v>
       </c>
@@ -2286,7 +2257,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F20" s="26"/>
     </row>
   </sheetData>
@@ -2320,14 +2291,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2336,12 +2307,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/mySystem/mySystem/xls/Extrusion/A/SOP-MFG-301-R13 吹膜岗位交接班记录.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/A/SOP-MFG-301-R13 吹膜岗位交接班记录.xlsx
@@ -546,31 +546,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>白班交班人：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                   </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>夜班异常情况处理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -579,106 +554,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>夜班交班人：</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>白班接班人：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>交接</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>时间：</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>夜班接班人：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>交接时间：</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>确认生产过程中无任何生产安全遗留和潜在隐患。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 白班交班人：                   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜班接班人：                                  交接时间：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 夜班交班人：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白班接班人：                                     交接 时间：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -780,7 +672,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -1098,13 +990,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1195,12 +1100,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1210,6 +1109,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1261,16 +1169,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1606,47 +1520,47 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
     </row>
     <row r="3" spans="1:6" ht="24.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="40" t="s">
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="41"/>
+      <c r="F3" s="42"/>
     </row>
     <row r="4" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="38" t="s">
+      <c r="C4" s="48"/>
+      <c r="D4" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="39"/>
+      <c r="E4" s="40"/>
       <c r="F4" s="12" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.7" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="37"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="49"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="50"/>
       <c r="D5" s="13" t="s">
         <v>2</v>
       </c>
@@ -1659,10 +1573,10 @@
       <c r="A6" s="16">
         <v>1</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="51"/>
+      <c r="C6" s="52"/>
       <c r="D6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1675,10 +1589,10 @@
       <c r="A7" s="16">
         <v>2</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="51"/>
+      <c r="C7" s="52"/>
       <c r="D7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1691,10 +1605,10 @@
       <c r="A8" s="16">
         <v>3</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="51"/>
+      <c r="C8" s="52"/>
       <c r="D8" s="1" t="s">
         <v>4</v>
       </c>
@@ -1707,10 +1621,10 @@
       <c r="A9" s="16">
         <v>4</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="51"/>
+      <c r="C9" s="52"/>
       <c r="D9" s="1" t="s">
         <v>4</v>
       </c>
@@ -1723,10 +1637,10 @@
       <c r="A10" s="16">
         <v>5</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="51"/>
+      <c r="C10" s="52"/>
       <c r="D10" s="1" t="s">
         <v>4</v>
       </c>
@@ -1739,10 +1653,10 @@
       <c r="A11" s="16">
         <v>6</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="51"/>
+      <c r="C11" s="52"/>
       <c r="D11" s="1" t="s">
         <v>4</v>
       </c>
@@ -1755,10 +1669,10 @@
       <c r="A12" s="16">
         <v>7</v>
       </c>
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="51"/>
+      <c r="C12" s="52"/>
       <c r="D12" s="1" t="s">
         <v>4</v>
       </c>
@@ -1773,10 +1687,10 @@
       <c r="A13" s="16">
         <v>8</v>
       </c>
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="51"/>
+      <c r="C13" s="52"/>
       <c r="D13" s="1" t="s">
         <v>4</v>
       </c>
@@ -1789,10 +1703,10 @@
       <c r="A14" s="16">
         <v>9</v>
       </c>
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="51"/>
+      <c r="C14" s="52"/>
       <c r="D14" s="1" t="s">
         <v>4</v>
       </c>
@@ -1807,10 +1721,10 @@
       <c r="A15" s="16">
         <v>10</v>
       </c>
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="51"/>
+      <c r="C15" s="52"/>
       <c r="D15" s="1" t="s">
         <v>4</v>
       </c>
@@ -1823,10 +1737,10 @@
       <c r="A16" s="16">
         <v>11</v>
       </c>
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="51"/>
+      <c r="C16" s="52"/>
       <c r="D16" s="1" t="s">
         <v>4</v>
       </c>
@@ -1839,10 +1753,10 @@
       <c r="A17" s="16">
         <v>12</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="51"/>
+      <c r="C17" s="52"/>
       <c r="D17" s="1" t="s">
         <v>4</v>
       </c>
@@ -1855,10 +1769,10 @@
       <c r="A18" s="16">
         <v>13</v>
       </c>
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="51"/>
+      <c r="C18" s="52"/>
       <c r="D18" s="1" t="s">
         <v>4</v>
       </c>
@@ -1871,10 +1785,10 @@
       <c r="A19" s="19">
         <v>14</v>
       </c>
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="51"/>
+      <c r="C19" s="52"/>
       <c r="D19" s="4" t="s">
         <v>4</v>
       </c>
@@ -1884,7 +1798,7 @@
       <c r="F19" s="15"/>
     </row>
     <row r="20" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="45" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="20" t="s">
@@ -1898,7 +1812,7 @@
       <c r="F20" s="15"/>
     </row>
     <row r="21" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="45"/>
+      <c r="A21" s="46"/>
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
       <c r="D21" s="5"/>
@@ -1947,8 +1861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13:F17"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1974,163 +1888,163 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
     </row>
     <row r="3" spans="1:6" ht="24.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="34" t="s">
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="32" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="38" t="s">
+      <c r="C4" s="48"/>
+      <c r="D4" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="39"/>
+      <c r="E4" s="40"/>
       <c r="F4" s="29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="37"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="49"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="50"/>
       <c r="D5" s="13" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="33"/>
+      <c r="F5" s="31"/>
     </row>
     <row r="6" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="28">
         <v>1</v>
       </c>
-      <c r="B6" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="55"/>
+      <c r="B6" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="54"/>
       <c r="D6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="53"/>
+      <c r="F6" s="56"/>
     </row>
     <row r="7" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="28">
         <v>2</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="55"/>
+      <c r="C7" s="54"/>
       <c r="D7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="53"/>
+      <c r="F7" s="56"/>
     </row>
     <row r="8" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="28">
         <v>3</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="55"/>
+      <c r="C8" s="54"/>
       <c r="D8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="53"/>
+      <c r="F8" s="56"/>
     </row>
     <row r="9" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="28">
         <v>4</v>
       </c>
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="55"/>
+      <c r="C9" s="54"/>
       <c r="D9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="53"/>
+      <c r="F9" s="56"/>
     </row>
     <row r="10" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="28">
         <v>5</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="55"/>
+      <c r="C10" s="54"/>
       <c r="D10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="30" t="s">
-        <v>33</v>
+      <c r="F10" s="33" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="28">
         <v>6</v>
       </c>
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="55"/>
+      <c r="C11" s="54"/>
       <c r="D11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="15" t="s">
-        <v>38</v>
+      <c r="F11" s="34" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="28">
         <v>7</v>
       </c>
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="55"/>
+      <c r="C12" s="54"/>
       <c r="D12" s="1" t="s">
         <v>4</v>
       </c>
@@ -2138,123 +2052,123 @@
         <v>4</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="28">
         <v>8</v>
       </c>
-      <c r="B13" s="54" t="s">
+      <c r="B13" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="55"/>
+      <c r="C13" s="54"/>
       <c r="D13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="53"/>
+      <c r="F13" s="56"/>
     </row>
     <row r="14" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="28">
         <v>9</v>
       </c>
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="55"/>
+      <c r="C14" s="54"/>
       <c r="D14" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="53"/>
+      <c r="F14" s="56"/>
     </row>
     <row r="15" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="28">
         <v>10</v>
       </c>
-      <c r="B15" s="54" t="s">
+      <c r="B15" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="55"/>
+      <c r="C15" s="54"/>
       <c r="D15" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="53"/>
+      <c r="F15" s="56"/>
     </row>
     <row r="16" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="28">
         <v>11</v>
       </c>
-      <c r="B16" s="54" t="s">
+      <c r="B16" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="55"/>
+      <c r="C16" s="54"/>
       <c r="D16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="53"/>
+      <c r="F16" s="56"/>
     </row>
     <row r="17" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="28">
         <v>12</v>
       </c>
-      <c r="B17" s="54" t="s">
+      <c r="B17" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="55"/>
+      <c r="C17" s="54"/>
       <c r="D17" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="53"/>
+      <c r="F17" s="56"/>
     </row>
     <row r="18" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="28">
         <v>13</v>
       </c>
-      <c r="B18" s="54" t="s">
+      <c r="B18" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="55"/>
+      <c r="C18" s="54"/>
       <c r="D18" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="15" t="s">
-        <v>36</v>
+      <c r="F18" s="34" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="19">
         <v>14</v>
       </c>
-      <c r="B19" s="54" t="s">
+      <c r="B19" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="55"/>
+      <c r="C19" s="58"/>
       <c r="D19" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F19" s="31" t="s">
-        <v>37</v>
+      <c r="F19" s="35" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
